--- a/Orders/PARKER - FY25 COST CENTER BUDGET PROPOSAL - G24-4.xlsx
+++ b/Orders/PARKER - FY25 COST CENTER BUDGET PROPOSAL - G24-4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Brock\Documents\Git\Research\Orders\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7FAE332-435C-4A57-BE36-44AB7274729E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3598EAE6-856D-43E6-AEF4-042B85A3065F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{01655712-48A9-4C2B-BF7C-2C37BB79E37C}"/>
   </bookViews>
@@ -158,25 +158,25 @@
     <t>MEMBERSHIPS/SUBSCRIPTIONS</t>
   </si>
   <si>
-    <t>COMPUTER ACCESSORIES</t>
-  </si>
-  <si>
-    <t>DESK ACCESSORIES</t>
-  </si>
-  <si>
     <t>Overleaf and SPIE</t>
   </si>
   <si>
     <t>Monitor, keyboard, mouse</t>
   </si>
   <si>
-    <t>Standing desktop</t>
-  </si>
-  <si>
-    <t>TRAVEL AND CONFERENCES</t>
-  </si>
-  <si>
-    <t>Unspecified travel to conferences</t>
+    <t>CONFERENCE REGISTRATION</t>
+  </si>
+  <si>
+    <t>BOOKS</t>
+  </si>
+  <si>
+    <t>Books for classes</t>
+  </si>
+  <si>
+    <t>COMPUTER/DESK ACCESSORIES</t>
+  </si>
+  <si>
+    <t>Registration for conferences</t>
   </si>
 </sst>
 </file>
@@ -877,7 +877,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -969,18 +969,8 @@
     <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1358,8 +1348,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B2CA84C-32AF-49E1-B7A7-C5BBD968C40B}">
   <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="L25" sqref="L25"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1535,43 +1525,43 @@
       <c r="E21" s="11"/>
       <c r="F21" s="12"/>
       <c r="G21" s="11">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B22" s="41" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C22" s="41"/>
       <c r="E22" s="11"/>
       <c r="F22" s="12"/>
       <c r="G22" s="11">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B23" s="41" t="s">
-        <v>39</v>
-      </c>
-      <c r="C23" s="41"/>
+      <c r="B23" s="43" t="s">
+        <v>40</v>
+      </c>
+      <c r="C23" s="44"/>
       <c r="E23" s="11"/>
       <c r="F23" s="12"/>
       <c r="G23" s="11">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B24" s="41" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C24" s="41"/>
       <c r="E24" s="11"/>
@@ -1580,20 +1570,20 @@
         <v>400</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B25" s="45"/>
-      <c r="C25" s="46"/>
+      <c r="B25" s="41"/>
+      <c r="C25" s="41"/>
       <c r="E25" s="11"/>
       <c r="F25" s="12"/>
       <c r="G25" s="11"/>
       <c r="I25" s="3"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B26" s="43"/>
-      <c r="C26" s="44"/>
+      <c r="B26" s="41"/>
+      <c r="C26" s="41"/>
       <c r="E26" s="11"/>
       <c r="F26" s="12"/>
       <c r="G26" s="11"/>
@@ -1611,7 +1601,7 @@
       <c r="F27" s="17"/>
       <c r="G27" s="16">
         <f>SUM(G20:G26)</f>
-        <v>910</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1631,7 +1621,7 @@
       <c r="F29" s="22"/>
       <c r="G29" s="21">
         <f>G18+G27</f>
-        <v>910</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="30" spans="1:9" s="19" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -1650,7 +1640,7 @@
       <c r="F31" s="22"/>
       <c r="G31" s="24">
         <f>G8-G29</f>
-        <v>1590</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="33" spans="2:9" ht="90" customHeight="1" x14ac:dyDescent="0.3">
